--- a/Introduction to databases/Homework 2/База граждан.xlsx
+++ b/Introduction to databases/Homework 2/База граждан.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7900" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Общий список" sheetId="1" r:id="rId1"/>
-    <sheet name="Домашняя раота" sheetId="3" r:id="rId2"/>
-    <sheet name="Разбито по таблицам" sheetId="2" r:id="rId3"/>
+    <sheet name="Разбито по таблицам" sheetId="2" r:id="rId2"/>
+    <sheet name="Домашняя работа" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="59">
   <si>
     <t>Общий список</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>SELECT ФИО, Д/р, Адрес FROM Общий список</t>
+  </si>
+  <si>
+    <t>SELECT ФИО, Статус FROM Общий список WHERE Адрес = «Можга»</t>
+  </si>
+  <si>
+    <t>SELECT ФИО FROM Общий список WHERE Адрес = «Москва» AND Группа = «Работа»</t>
+  </si>
+  <si>
+    <t>SELECT Д/р FROM Общий список WHERE Адрес = «Москва» OR Группа = «Работа»</t>
+  </si>
+  <si>
+    <t>INNER JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>LEFT JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>RIGHT JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>FULL JOIN Люди, Адреса ON id = Чей адрес</t>
+  </si>
+  <si>
+    <t>SELECT ФИО, Адрес, Комментарий FROM Люди RIGHT JOIN Адреса ON id = Чей Адрес</t>
   </si>
 </sst>
 </file>
@@ -199,6 +223,7 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -227,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -250,11 +275,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,9 +353,53 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -556,7 +679,7 @@
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -579,7 +702,7 @@
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -602,7 +725,7 @@
       <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -625,7 +748,7 @@
       <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -648,7 +771,7 @@
       <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -671,7 +794,7 @@
       <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -682,22 +805,22 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="19">
         <v>39276</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="17">
         <v>643</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -705,22 +828,22 @@
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="20">
         <v>39276</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="18">
         <v>654</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -728,22 +851,22 @@
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="19">
         <v>31841</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="17">
         <v>412</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -751,22 +874,22 @@
       <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="20">
         <v>32736</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="18">
         <v>723</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -774,22 +897,22 @@
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="19">
         <v>35438</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="17">
         <v>876</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -797,22 +920,22 @@
       <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="20">
         <v>35438</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="18">
         <v>875</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -820,22 +943,22 @@
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="19">
         <v>35402</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="17">
         <v>933</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1829,27 +1952,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3225,4 +3327,1143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.4140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" customWidth="1"/>
+    <col min="24" max="24" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11">
+        <v>32916</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4">
+        <v>32916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13">
+        <v>32916</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="7">
+        <v>32916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11">
+        <v>37152</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7">
+        <v>30429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13">
+        <v>30429</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="4">
+        <v>30430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11">
+        <v>30430</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="20">
+        <v>32736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="13">
+        <v>35936</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="19">
+        <v>35402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="12">
+        <v>39276</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14">
+        <v>39276</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="12">
+        <v>31841</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14">
+        <v>32736</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="12">
+        <v>35438</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="14">
+        <v>35438</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="12">
+        <v>35402</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="21" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="4">
+        <v>32916</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="4">
+        <v>32916</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4">
+        <v>32916</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="21" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7">
+        <v>37152</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="7">
+        <v>37152</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4">
+        <v>30429</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="4">
+        <v>30429</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="21" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7">
+        <v>35936</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="6">
+        <v>4</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="7">
+        <v>35936</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="3">
+        <v>25</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="4">
+        <v>43972</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4">
+        <v>32916</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="4">
+        <v>32916</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7">
+        <v>37152</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="4">
+        <v>32916</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="4">
+        <v>30429</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="4">
+        <v>32916</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="24">
+        <v>4</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="28">
+        <v>35936</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="6">
+        <v>2</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="7">
+        <v>37152</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="3">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="4">
+        <v>30429</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="6">
+        <v>4</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="7">
+        <v>35936</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="3">
+        <v>25</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="4">
+        <v>43972</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="25"/>
+      <c r="B52" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="25"/>
+      <c r="B54" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="29"/>
+      <c r="B56" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="29"/>
+      <c r="B57" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="29"/>
+      <c r="B58" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>